--- a/Jun15thSeleniumBatch/target/test-classes/testData/AppData.xlsx
+++ b/Jun15thSeleniumBatch/target/test-classes/testData/AppData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Workplaces\SeleniumBasic_Workspace\Jun15thSeleniumBatch\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B96D950-6BF5-49AB-B99E-CF885F4DF82D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA5461B-386E-41C7-99ED-A305E30E6DCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
   <si>
     <t>AppUrl</t>
   </si>
@@ -38,9 +38,6 @@
     <t>Password</t>
   </si>
   <si>
-    <t>ExpectedTitle</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
@@ -78,6 +75,24 @@
   </si>
   <si>
     <t>ActualTitle</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>https://opensource-demo.orangehrmlive.com/web/index.php/auth/login</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>admin123</t>
+  </si>
+  <si>
+    <t>ExpectedTitle/url</t>
+  </si>
+  <si>
+    <t>Dashboard</t>
   </si>
 </sst>
 </file>
@@ -430,18 +445,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="39" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="30.109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="30.109375" customWidth="1"/>
+    <col min="4" max="5" width="30.109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -455,32 +469,38 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -489,21 +509,35 @@
         <v>1234</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
-        <v>9</v>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -545,43 +579,43 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="F1" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
